--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285793.147012651</v>
+        <v>2283541.067301442</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283197</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.184240390029</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>171.1167978045333</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>257.4905091903022</v>
       </c>
       <c r="V4" t="n">
-        <v>25.13327924842648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>329.1502695874345</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.95558184798627</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>32.24238685723915</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>121.8859257518363</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>209.5905696186617</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.18111948505684</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>244.2778134288553</v>
+        <v>285.2123952220965</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695258</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.66054613217482</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.908539401876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272956</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.355170814548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>159.4718642460848</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.4641157700689</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,10 +2327,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>20.43112068613158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>186.9015203136212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888094</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>54.27601060788857</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>225.6414338000054</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.3852063573442</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>42.53134576113725</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
-        <v>110.9396563989398</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.13013587303</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.13013587303</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877109</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U4" t="n">
-        <v>410.0175235133545</v>
+        <v>469.1096982204634</v>
       </c>
       <c r="V4" t="n">
-        <v>384.6303727573681</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="W4" t="n">
-        <v>384.6303727573681</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X4" t="n">
-        <v>384.6303727573681</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820604</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1518.851284880192</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1160.585586273442</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881546</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796416</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820604</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757121</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757121</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757121</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>707.9394518566855</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>453.2549636507987</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>163.8377936138381</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>163.8377936138381</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>99.08018396474822</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416651</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416651</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.660964416651</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>1032.872711818407</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923657</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653543</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392463</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416651</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4990,22 +4990,22 @@
         <v>831.0565485757124</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757124</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757124</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757124</v>
+        <v>354.6054449393516</v>
       </c>
       <c r="W10" t="n">
-        <v>584.3112824859596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>584.3112824859596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5021,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273893</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>119.2902967703798</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703798</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703798</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969314</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277338</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277338</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910799</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570808</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279792</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853351</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239594</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397178</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820876</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855596</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199793</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993906</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956946</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.139029956946</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192713</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,19 +5528,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273895</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273895</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273895</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438182</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998425</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9099533103043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979686</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516141</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516141</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516141</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132772</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.041646372059</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>721.7774158311382</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>552.8412329032313</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908956</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908956</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908956</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1788.671666052305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1533.987177846418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.570007809457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1016.58045691144</v>
+        <v>1124.218459804908</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>903.425880661378</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>923.4916164683283</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>754.5554335404214</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>604.4387941280856</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,7 +6935,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7017,25 +7017,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>527.7722521572603</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>527.7722521572603</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>251.5626541092265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
         <v>408.925855915485</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075643</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392195197</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.2294825375468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>126.7126101431593</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.36786441186837</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>146.8157004124963</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401562</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>92.15795203868061</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>60.54304058923876</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.44677382459307</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>102.889702261794</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.1988153137</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.1988153139</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
@@ -26353,7 +26353,7 @@
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,28 +26430,28 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948262</v>
+        <v>-914494.1029948263</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.642732767</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327663</v>
+        <v>414250.6427327668</v>
       </c>
       <c r="E6" t="n">
-        <v>162778.3741643504</v>
+        <v>162743.6362389144</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717053</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="G6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="H6" t="n">
-        <v>488190.835971705</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="I6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="J6" t="n">
-        <v>270659.6335744275</v>
+        <v>270624.8956489922</v>
       </c>
       <c r="K6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="L6" t="n">
-        <v>488190.835971705</v>
+        <v>488156.0980462695</v>
       </c>
       <c r="M6" t="n">
-        <v>403135.8080361934</v>
+        <v>403101.0701107575</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.835971705</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="O6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="P6" t="n">
-        <v>488190.8359717051</v>
+        <v>488156.0980462692</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.7461296822328</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>215.1211408515203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>28.72132901531063</v>
       </c>
       <c r="V4" t="n">
-        <v>227.0043640754015</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.7801004848273</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2823568080673</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>133.7834214017891</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>164.3259124537766</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>197.2854761230498</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.5499811934122</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>42.24518490773573</v>
+        <v>1.310603114494484</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.756905814749189e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-9.143737618918142e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-4.137378184557301e-13</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-7.352696229645516e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29047,10 +29047,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-4.137378184557301e-13</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31619,7 +31619,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987486</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>150.7833302198393</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312112</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614922</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181837</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>295.9743940159489</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>704.1404939038099</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33260,16 +33260,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578897</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33655,10 +33655,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>489.8124929257571</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>295.3955842839422</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127271</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>23.94570355317256</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010358</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867668</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318484</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
-        <v>590.348564839474</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>101.8925903961654</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>161.9999866016186</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>572.7987818204766</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,16 +36908,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587134</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37303,10 +37303,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>347.2162484813126</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>157.5541453095832</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
